--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/move_on/django/projects/myproject/myproject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDECD2E-3AAD-9142-8879-01A8556D4078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EE19A-83C3-6D40-80F9-33FFB286A7D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15700" xr2:uid="{23B17841-CC4F-7A4A-9CA4-F380B4FF9899}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="197">
   <si>
     <t>Chapter Number</t>
   </si>
@@ -426,42 +426,9 @@
     <t>Title with author</t>
   </si>
   <si>
-    <t>RH e-mail</t>
-  </si>
-  <si>
-    <t>Alt - e-mail</t>
-  </si>
-  <si>
     <t>2th edition of “Equipment for Respiratory Care” by Teresa Volsko, Robert Chatburn, Mohamad El-Khatib</t>
   </si>
   <si>
-    <t>mahalakshmig@s4carlisle.com</t>
-  </si>
-  <si>
-    <t>arunmozhip@s4carlisle.com</t>
-  </si>
-  <si>
-    <t>lavanyav@s4carlisle.com</t>
-  </si>
-  <si>
-    <t>muraliba@s4carlisle.com</t>
-  </si>
-  <si>
-    <t>MuthukumarS@s4carlisle.com</t>
-  </si>
-  <si>
-    <t>ShaliniB@s4carlisle.com</t>
-  </si>
-  <si>
-    <t>RH Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
     <t>Insert 1</t>
   </si>
   <si>
@@ -474,11 +441,6 @@
     <t>File name</t>
   </si>
   <si>
-    <t xml:space="preserve">S4Carlisle Publishing Services
-No. 60,Industrial Estate, Perungudi, Chennai 600096, India
-</t>
-  </si>
-  <si>
     <t>Equipment for Respiratory Care Second Edition by Teresa Volsko, Robert Chatburn, Mohamad El-Khatib © 2022 ISBN 9781284196290</t>
   </si>
   <si>
@@ -488,21 +450,9 @@
     <t>Mahalakshmi G</t>
   </si>
   <si>
-    <t>Integra LifeSciences Services, Immeuble Sequoia 2, 97 allée Alexandre Borodine, 69800 Saint Priest – France</t>
-  </si>
-  <si>
     <t>Rebecca Damon</t>
   </si>
   <si>
-    <t xml:space="preserve">91 44 24545411 </t>
-  </si>
-  <si>
-    <t>33 (0) 4 37 47 59 50</t>
-  </si>
-  <si>
-    <t>33 (0) 4 37 47 59 25</t>
-  </si>
-  <si>
     <t>Source Link</t>
   </si>
   <si>
@@ -671,19 +621,13 @@
     <t>2234567890123_CH10_TABF58</t>
   </si>
   <si>
-    <t>sakthi@pagemajik.com, shaktheev@yahoo.com</t>
-  </si>
-  <si>
-    <t>shaktheev@gmail.com</t>
-  </si>
-  <si>
-    <t>sakthi@pagemajik.com</t>
-  </si>
-  <si>
-    <t>shaktheev@yahoo.com</t>
-  </si>
-  <si>
-    <t>shaktheev@gmail.com, shaktheev@yahoo.com</t>
+    <t>sakthi@qbend.com</t>
+  </si>
+  <si>
+    <t>sakthi@s4carlisle.com</t>
+  </si>
+  <si>
+    <t>RH Contact</t>
   </si>
 </sst>
 </file>
@@ -693,7 +637,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -736,11 +680,6 @@
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -822,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -915,42 +854,21 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -969,6 +887,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1285,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CC8DA4-2790-1D46-8472-7445AFFDEA44}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,10 +1221,10 @@
     <col min="5" max="5" width="10.83203125" style="15"/>
     <col min="6" max="6" width="12.83203125" style="15"/>
     <col min="7" max="7" width="10.83203125" style="24"/>
-    <col min="8" max="17" width="10.83203125" style="34"/>
+    <col min="8" max="13" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,48 +1238,36 @@
         <v>40</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>98</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>139</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1370,46 +1279,34 @@
         <v>42</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="18"/>
-      <c r="H2" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="27" t="s">
+      <c r="H2" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
-        <v>156</v>
+      <c r="L2" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1421,46 +1318,34 @@
         <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" s="27" t="s">
+      <c r="H3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="342" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="L3" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="342" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1472,46 +1357,34 @@
         <v>44</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>101</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O4" s="27" t="s">
+      <c r="H4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="384" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>156</v>
+      <c r="L4" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="384" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1523,46 +1396,34 @@
         <v>47</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O5" s="27" t="s">
+      <c r="H5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="384" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
-        <v>156</v>
+      <c r="L5" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="384" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1574,46 +1435,34 @@
         <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G6" s="18"/>
-      <c r="H6" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" s="27" t="s">
+      <c r="H6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
-        <v>156</v>
+      <c r="L6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1625,46 +1474,34 @@
         <v>47</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O7" s="27" t="s">
+      <c r="H7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>156</v>
+      <c r="L7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -1676,46 +1513,34 @@
         <v>50</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>103</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O8" s="27" t="s">
+      <c r="H8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="328" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>157</v>
+      <c r="L8" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="328" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1727,46 +1552,34 @@
         <v>52</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O9" s="27" t="s">
+      <c r="H9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>157</v>
+      <c r="L9" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -1778,46 +1591,34 @@
         <v>54</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O10" s="27" t="s">
+      <c r="H10" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>157</v>
+      <c r="L10" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -1829,46 +1630,34 @@
         <v>55</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>157</v>
+      <c r="H11" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1880,44 +1669,34 @@
         <v>56</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="28" t="s">
+      <c r="H12" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="300" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
-        <v>157</v>
+      <c r="L12" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1929,7 +1708,7 @@
         <v>58</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>105</v>
@@ -1937,38 +1716,28 @@
       <c r="G13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J13" s="28" t="s">
+      <c r="H13" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="300" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
-        <v>157</v>
+      <c r="L13" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="300" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
@@ -1980,7 +1749,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>106</v>
@@ -1988,38 +1757,28 @@
       <c r="G14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" s="28" t="s">
+      <c r="H14" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
-        <v>158</v>
+      <c r="M14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -2031,44 +1790,34 @@
         <v>62</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>107</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" s="28" t="s">
+      <c r="H15" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>158</v>
+      <c r="M15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -2080,44 +1829,34 @@
         <v>62</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J16" s="28" t="s">
+      <c r="H16" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P16" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="238" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>159</v>
+      <c r="M16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -2129,44 +1868,32 @@
         <v>62</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J17" s="28" t="s">
+      <c r="H17" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P17" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="270" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
-        <v>159</v>
+      <c r="M17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="270" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
@@ -2178,44 +1905,32 @@
         <v>66</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>110</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P18" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="238" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
-        <v>159</v>
+      <c r="H18" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
@@ -2227,44 +1942,32 @@
         <v>68</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="180" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>159</v>
+      <c r="H19" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
@@ -2276,42 +1979,30 @@
         <v>70</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="180" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>160</v>
+      <c r="H20" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="26"/>
+      <c r="M20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="180" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
@@ -2323,38 +2014,28 @@
         <v>72</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
-        <v>160</v>
+      <c r="H21" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
@@ -2366,7 +2047,7 @@
         <v>73</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>73</v>
@@ -2374,40 +2055,28 @@
       <c r="G22" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" s="33" t="s">
+      <c r="H22" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="P22" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>161</v>
+      <c r="M22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
@@ -2419,42 +2088,34 @@
         <v>42</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K23" s="36" t="s">
+      <c r="H23" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
@@ -2466,7 +2127,7 @@
         <v>42</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>99</v>
@@ -2474,36 +2135,28 @@
       <c r="G24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="36" t="s">
+      <c r="H24" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>14</v>
@@ -2515,42 +2168,34 @@
         <v>42</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="36" t="s">
+      <c r="H25" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="384" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="384" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
@@ -2562,46 +2207,34 @@
         <v>42</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="36" t="s">
+      <c r="H26" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
@@ -2613,46 +2246,34 @@
         <v>42</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="36" t="s">
+      <c r="H27" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
@@ -2664,46 +2285,34 @@
         <v>80</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>111</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28" s="36" t="s">
+      <c r="H28" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
@@ -2715,46 +2324,34 @@
         <v>80</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>111</v>
       </c>
       <c r="G29" s="18"/>
-      <c r="H29" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K29" s="36" t="s">
+      <c r="H29" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N29" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P29" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
@@ -2766,46 +2363,34 @@
         <v>42</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G30" s="18"/>
-      <c r="H30" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" s="36" t="s">
+      <c r="H30" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
@@ -2817,46 +2402,34 @@
         <v>42</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="36" t="s">
+      <c r="H31" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
@@ -2868,44 +2441,32 @@
         <v>42</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N32" s="30" t="s">
+      <c r="H32" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="26"/>
+      <c r="M32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>162</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>32</v>
@@ -2917,42 +2478,30 @@
         <v>86</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N33" s="30" t="s">
+      <c r="H33" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="26"/>
+      <c r="M33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="27"/>
-      <c r="Q33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
-        <v>162</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>33</v>
@@ -2964,44 +2513,32 @@
         <v>87</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N34" s="30" t="s">
+      <c r="H34" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
-        <v>162</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -3013,44 +2550,32 @@
         <v>86</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K35" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O35" s="27" t="s">
+      <c r="H35" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P35" s="27"/>
-      <c r="Q35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
-        <v>163</v>
+      <c r="L35" s="26"/>
+      <c r="M35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>147</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>23</v>
@@ -3062,44 +2587,32 @@
         <v>90</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>112</v>
       </c>
       <c r="G36" s="18"/>
-      <c r="H36" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O36" s="27" t="s">
+      <c r="H36" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P36" s="27"/>
-      <c r="Q36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
-        <v>163</v>
+      <c r="L36" s="26"/>
+      <c r="M36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
+        <v>147</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>35</v>
@@ -3111,44 +2624,32 @@
         <v>92</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N37" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O37" s="27" t="s">
+      <c r="H37" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P37" s="27"/>
-      <c r="Q37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
-        <v>163</v>
+      <c r="L37" s="26"/>
+      <c r="M37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>147</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>36</v>
@@ -3160,7 +2661,7 @@
         <v>94</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>113</v>
@@ -3168,36 +2669,26 @@
       <c r="G38" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M38" s="27"/>
-      <c r="N38" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O38" s="27" t="s">
+      <c r="H38" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P38" s="27"/>
-      <c r="Q38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
-        <v>164</v>
+      <c r="L38" s="26"/>
+      <c r="M38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>37</v>
@@ -3209,42 +2700,32 @@
         <v>62</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G39" s="18"/>
-      <c r="H39" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J39" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K39" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O39" s="27" t="s">
+      <c r="H39" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K39" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P39" s="27"/>
-      <c r="Q39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="255" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
-        <v>164</v>
+      <c r="L39" s="26"/>
+      <c r="M39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>38</v>
@@ -3256,61 +2737,51 @@
         <v>97</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>114</v>
       </c>
       <c r="G40" s="18"/>
-      <c r="H40" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M40" s="27"/>
-      <c r="N40" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O40" s="27" t="s">
+      <c r="H40" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P40" s="27"/>
-      <c r="Q40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L40" s="26"/>
+      <c r="M40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G41" s="23"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G48" s="23"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.2">
@@ -3334,24 +2805,63 @@
     <hyperlink ref="G11" r:id="rId11" xr:uid="{166A54EF-C58B-8D4C-8D2E-AC971B69EBBB}"/>
     <hyperlink ref="G12" r:id="rId12" xr:uid="{23211234-5D9A-D641-98FF-211790A62333}"/>
     <hyperlink ref="G13" r:id="rId13" xr:uid="{7C873612-7D1F-2448-B730-F5BAB40C5BA8}"/>
-    <hyperlink ref="P22" r:id="rId14" xr:uid="{0312084A-73BB-2C48-948A-0C27D40EAC33}"/>
-    <hyperlink ref="P2:P8" r:id="rId15" display="\\10.1.1.100\copyediting\04-Rights&amp;Media\02_JBL\Volsko_17364-1\02_Research\Photo\Photo Research\Volsko_2e_Research options" xr:uid="{97AF980D-36A6-8540-AE82-034F3E0AE04A}"/>
-    <hyperlink ref="P9:P13" r:id="rId16" display="\\10.1.1.100\copyediting\04-Rights&amp;Media\02_JBL\Volsko_17364-1\02_Research\Photo\Photo Research\Volsko_2e_Research options" xr:uid="{697A5F8E-DC39-674B-8320-5EDF29BE4496}"/>
-    <hyperlink ref="P14" r:id="rId17" xr:uid="{112AF8D4-B36B-5E4D-8362-B434BC7BF7A5}"/>
-    <hyperlink ref="P15" r:id="rId18" xr:uid="{B59F3F11-EC80-3749-99B6-85D224573F18}"/>
-    <hyperlink ref="P16" r:id="rId19" xr:uid="{FF01CC56-C373-FC4F-87E4-AED1E9114C96}"/>
-    <hyperlink ref="P17" r:id="rId20" xr:uid="{FC853D21-3193-CE44-A8F4-5DFC23A8706F}"/>
-    <hyperlink ref="P18" r:id="rId21" xr:uid="{5AC2987C-7073-4046-8063-BCDC812ACCC4}"/>
-    <hyperlink ref="P19" r:id="rId22" xr:uid="{8FA3EE92-0318-CB4E-86AA-78C7DEA1E96F}"/>
-    <hyperlink ref="P23" r:id="rId23" xr:uid="{B16DCCC5-1C6F-3A42-9BAE-A09DA9D85D47}"/>
-    <hyperlink ref="P24" r:id="rId24" xr:uid="{B31655E7-6E04-3545-BB95-585FB857BD65}"/>
-    <hyperlink ref="P25" r:id="rId25" xr:uid="{A5D684D6-23BB-EF47-92B5-9E1BE71EAA00}"/>
-    <hyperlink ref="P26" r:id="rId26" xr:uid="{AF6ADBD0-495E-6240-97B8-394B472ACAF4}"/>
-    <hyperlink ref="P27" r:id="rId27" xr:uid="{D1250E56-F12E-E748-B49C-A8C5E6639DD9}"/>
-    <hyperlink ref="P28" r:id="rId28" xr:uid="{66020A6E-340E-4246-ADC3-F816D67F1304}"/>
-    <hyperlink ref="P29" r:id="rId29" xr:uid="{6A7D131D-50F9-CF41-BB0D-6E43BB889159}"/>
-    <hyperlink ref="P30" r:id="rId30" xr:uid="{2E709063-AA39-714C-92A7-052E6BD68287}"/>
-    <hyperlink ref="P31" r:id="rId31" xr:uid="{48B85F73-38C7-E54F-A6AA-327FC8AA883A}"/>
+    <hyperlink ref="L22" r:id="rId14" xr:uid="{0312084A-73BB-2C48-948A-0C27D40EAC33}"/>
+    <hyperlink ref="L2:L8" r:id="rId15" display="\\10.1.1.100\copyediting\04-Rights&amp;Media\02_JBL\Volsko_17364-1\02_Research\Photo\Photo Research\Volsko_2e_Research options" xr:uid="{97AF980D-36A6-8540-AE82-034F3E0AE04A}"/>
+    <hyperlink ref="L9:L13" r:id="rId16" display="\\10.1.1.100\copyediting\04-Rights&amp;Media\02_JBL\Volsko_17364-1\02_Research\Photo\Photo Research\Volsko_2e_Research options" xr:uid="{697A5F8E-DC39-674B-8320-5EDF29BE4496}"/>
+    <hyperlink ref="L14" r:id="rId17" xr:uid="{112AF8D4-B36B-5E4D-8362-B434BC7BF7A5}"/>
+    <hyperlink ref="L15" r:id="rId18" xr:uid="{B59F3F11-EC80-3749-99B6-85D224573F18}"/>
+    <hyperlink ref="L16" r:id="rId19" xr:uid="{FF01CC56-C373-FC4F-87E4-AED1E9114C96}"/>
+    <hyperlink ref="L17" r:id="rId20" xr:uid="{FC853D21-3193-CE44-A8F4-5DFC23A8706F}"/>
+    <hyperlink ref="L18" r:id="rId21" xr:uid="{5AC2987C-7073-4046-8063-BCDC812ACCC4}"/>
+    <hyperlink ref="L19" r:id="rId22" xr:uid="{8FA3EE92-0318-CB4E-86AA-78C7DEA1E96F}"/>
+    <hyperlink ref="L23" r:id="rId23" xr:uid="{B16DCCC5-1C6F-3A42-9BAE-A09DA9D85D47}"/>
+    <hyperlink ref="L24" r:id="rId24" xr:uid="{B31655E7-6E04-3545-BB95-585FB857BD65}"/>
+    <hyperlink ref="L25" r:id="rId25" xr:uid="{A5D684D6-23BB-EF47-92B5-9E1BE71EAA00}"/>
+    <hyperlink ref="L26" r:id="rId26" xr:uid="{AF6ADBD0-495E-6240-97B8-394B472ACAF4}"/>
+    <hyperlink ref="L27" r:id="rId27" xr:uid="{D1250E56-F12E-E748-B49C-A8C5E6639DD9}"/>
+    <hyperlink ref="L28" r:id="rId28" xr:uid="{66020A6E-340E-4246-ADC3-F816D67F1304}"/>
+    <hyperlink ref="L29" r:id="rId29" xr:uid="{6A7D131D-50F9-CF41-BB0D-6E43BB889159}"/>
+    <hyperlink ref="L30" r:id="rId30" xr:uid="{2E709063-AA39-714C-92A7-052E6BD68287}"/>
+    <hyperlink ref="L31" r:id="rId31" xr:uid="{48B85F73-38C7-E54F-A6AA-327FC8AA883A}"/>
+    <hyperlink ref="I2" r:id="rId32" xr:uid="{743293B3-0307-344B-8D6C-725528AC907B}"/>
+    <hyperlink ref="I3" r:id="rId33" xr:uid="{43BF7BFA-3A95-6141-A3C7-26955F2FA3D9}"/>
+    <hyperlink ref="I4" r:id="rId34" xr:uid="{2799F61B-DE5E-274B-B11A-4222BEE705CD}"/>
+    <hyperlink ref="I5" r:id="rId35" xr:uid="{C45DD1C5-7F9A-FC45-8694-2B4CBCE20FC5}"/>
+    <hyperlink ref="I6" r:id="rId36" xr:uid="{0A2CBFF3-C5BB-0F46-8DED-0F103FE6F6D1}"/>
+    <hyperlink ref="I7" r:id="rId37" xr:uid="{6E636DD2-294D-A343-9468-5864451E0D52}"/>
+    <hyperlink ref="I8" r:id="rId38" xr:uid="{F563C195-7418-3046-80C5-C6A2B2C7F9BD}"/>
+    <hyperlink ref="I9" r:id="rId39" xr:uid="{74194528-0FBF-7048-9F1D-8BD0F3B25F17}"/>
+    <hyperlink ref="I10" r:id="rId40" xr:uid="{17E2BDF6-5D56-1645-A802-B8DD89585821}"/>
+    <hyperlink ref="I11" r:id="rId41" xr:uid="{6B0F3EA2-E29A-7A48-9417-9BFDD9CE81E4}"/>
+    <hyperlink ref="I12" r:id="rId42" xr:uid="{29610AD9-87F5-3D4A-9E15-AC0FA164C463}"/>
+    <hyperlink ref="I13" r:id="rId43" xr:uid="{90D61BAD-3731-AB43-9EDF-43A1C4BC7EEA}"/>
+    <hyperlink ref="I14" r:id="rId44" xr:uid="{2AAF9343-DCB4-674D-970C-CBAF9F66F344}"/>
+    <hyperlink ref="I15" r:id="rId45" xr:uid="{0069F9B1-6049-2A4C-B9F2-97E48FC301E9}"/>
+    <hyperlink ref="I16" r:id="rId46" xr:uid="{3C78D225-5FDB-2745-B16D-8F279707A24F}"/>
+    <hyperlink ref="I17" r:id="rId47" xr:uid="{5041166A-1464-E447-9D8B-C01B0DE9E3E3}"/>
+    <hyperlink ref="I18" r:id="rId48" xr:uid="{94378E28-8562-B840-90AF-B457BDFCBADA}"/>
+    <hyperlink ref="I19" r:id="rId49" xr:uid="{55069807-99CA-2B4A-8500-C97DAEE936A5}"/>
+    <hyperlink ref="I20" r:id="rId50" xr:uid="{F2571559-699A-3747-AFDF-302333E279BA}"/>
+    <hyperlink ref="I21" r:id="rId51" xr:uid="{8B968316-EE30-9245-B3FA-4240A7DABBA7}"/>
+    <hyperlink ref="I22" r:id="rId52" xr:uid="{AA3846A1-5207-0247-B0DE-B757DE08F481}"/>
+    <hyperlink ref="I23" r:id="rId53" xr:uid="{BB7C990F-AB25-264C-869E-C795FAF6670A}"/>
+    <hyperlink ref="I24" r:id="rId54" xr:uid="{CE7546E4-D6CA-874F-A768-B2BAFA777103}"/>
+    <hyperlink ref="I25" r:id="rId55" xr:uid="{69EA25DE-A4F9-3140-A18B-3B54635D2A29}"/>
+    <hyperlink ref="I26" r:id="rId56" xr:uid="{959FEE75-AF90-524F-BDF4-629F7659C0C7}"/>
+    <hyperlink ref="I27" r:id="rId57" xr:uid="{17D22DEA-0699-244E-83A4-C5CA9CF846C2}"/>
+    <hyperlink ref="I28" r:id="rId58" xr:uid="{DA546B90-96E7-3643-BA78-7CFA505C3622}"/>
+    <hyperlink ref="I29" r:id="rId59" xr:uid="{BE817BC6-7F4A-344B-A89D-1B2970242EBC}"/>
+    <hyperlink ref="I30" r:id="rId60" xr:uid="{2ED8B851-08AC-4441-81E0-A180A1EDD143}"/>
+    <hyperlink ref="I31" r:id="rId61" xr:uid="{B47F1DB6-E543-3A4C-A0A7-99C63AEF79D0}"/>
+    <hyperlink ref="I32" r:id="rId62" xr:uid="{5E15C2EE-FAAC-734F-9161-B3AC3EEFD594}"/>
+    <hyperlink ref="I33" r:id="rId63" xr:uid="{106D5F98-568E-3C4F-B576-BBFBDD7A325E}"/>
+    <hyperlink ref="I34" r:id="rId64" xr:uid="{DFC4FC69-6CCB-3845-8CAC-4AF708DEC4C9}"/>
+    <hyperlink ref="I35" r:id="rId65" xr:uid="{8E09E402-CC0D-9449-8A78-F2965CFAE1A1}"/>
+    <hyperlink ref="I36" r:id="rId66" xr:uid="{6FC1D907-4739-FC43-8A12-676C73E0B7F0}"/>
+    <hyperlink ref="I37" r:id="rId67" xr:uid="{770E4F1F-A11C-8E44-BF06-2732381FF36A}"/>
+    <hyperlink ref="I38" r:id="rId68" xr:uid="{96035C17-150B-8B4E-B74F-33F0BFA00702}"/>
+    <hyperlink ref="I39" r:id="rId69" xr:uid="{7C0CD365-7515-314B-B168-5AF271DC036D}"/>
+    <hyperlink ref="I40" r:id="rId70" xr:uid="{6EEF8FAA-07B5-3145-B01C-EFD13A40456A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
